--- a/experimental_sections/steel_depth/excel_files/steel_depth_info.xlsx
+++ b/experimental_sections/steel_depth/excel_files/steel_depth_info.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28724"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2B6DA1E6F613C8264F2C4C1A15F22C1B5C649BB5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_2B6DA1E6F613C8264F2C4C1A15F22C1B5C649BB5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA18D415-C5B6-4737-A87F-05CD0F0EAD9B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -149,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +172,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,11 +219,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,9 +531,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
@@ -606,10 +634,10 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -657,10 +685,10 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
